--- a/PFT_Parameterizations.xlsx
+++ b/PFT_Parameterizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23900" windowHeight="28260" tabRatio="853" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23900" windowHeight="28260" tabRatio="853" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="5 - Temp C3 Grass" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="67">
   <si>
     <t>Param</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>PHas1a.v2</t>
+  </si>
+  <si>
+    <t>calc</t>
   </si>
 </sst>
 </file>
@@ -300,7 +303,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="349">
+  <cellStyleXfs count="351">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -650,8 +653,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -663,8 +668,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="349">
+  <cellStyles count="351">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -839,6 +845,7 @@
     <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1013,6 +1020,7 @@
     <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2050,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F23" sqref="A23:F23"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2181,7 +2189,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>-0.38840000000000002</v>
+        <v>-3.884E-2</v>
       </c>
       <c r="D7" s="2">
         <v>-3.8839999600000001E-2</v>
@@ -2952,7 +2960,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F23" sqref="A23:F23"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3016,7 +3024,7 @@
         <v>0.16169999539999999</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F46" si="0">D3</f>
+        <f t="shared" ref="F3:F9" si="0">D3</f>
         <v>0.16169999539999999</v>
       </c>
     </row>
@@ -3142,9 +3150,8 @@
         <v>2.5641026000000002E-3</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>2.5641026000000002E-3</v>
+      <c r="F10" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3161,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
+        <f>D11</f>
         <v>0</v>
       </c>
     </row>
@@ -3181,7 +3188,7 @@
       <c r="E12" s="2">
         <v>10.70833</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="7">
         <v>10.7</v>
       </c>
     </row>
@@ -3198,9 +3205,8 @@
       <c r="D13" s="2">
         <v>132.0868988037</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>132.0868988037</v>
+      <c r="F13" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3218,7 +3224,7 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
+        <f>D14</f>
         <v>0</v>
       </c>
     </row>
@@ -3236,7 +3242,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
+        <f>D15</f>
         <v>1</v>
       </c>
     </row>
@@ -3254,7 +3260,7 @@
         <v>20</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
+        <f>D16</f>
         <v>20</v>
       </c>
     </row>
@@ -3272,7 +3278,7 @@
         <v>2.3568E-3</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
+        <f>D17</f>
         <v>2.3568E-3</v>
       </c>
     </row>
@@ -3293,9 +3299,8 @@
       <c r="E18" s="9">
         <v>216</v>
       </c>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>213</v>
+      <c r="F18" s="5">
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3312,7 +3317,7 @@
         <v>0.94999998809999997</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
+        <f>D19</f>
         <v>0.94999998809999997</v>
       </c>
     </row>
@@ -3330,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="0"/>
+        <f>D20</f>
         <v>0</v>
       </c>
     </row>
@@ -3348,7 +3353,7 @@
         <v>0.1000000015</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
+        <f>D21</f>
         <v>0.1000000015</v>
       </c>
     </row>
@@ -3365,27 +3370,26 @@
       <c r="D22" s="2">
         <v>108.4507446289</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>108.4507446289</v>
+      <c r="F22" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="7">
         <v>1000</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="7">
         <v>1000</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9">
-        <f t="shared" si="0"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7">
+        <f>D23</f>
         <v>1000</v>
       </c>
     </row>
@@ -3403,7 +3407,7 @@
         <v>9.9999997999999993E-3</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="0"/>
+        <f>D24</f>
         <v>9.9999997999999993E-3</v>
       </c>
     </row>
@@ -3421,7 +3425,7 @@
         <v>1.9999999599999999E-2</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="0"/>
+        <f>D25</f>
         <v>1.9999999599999999E-2</v>
       </c>
     </row>
@@ -3439,7 +3443,7 @@
         <v>5.0000000699999998E-2</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="0"/>
+        <f>D26</f>
         <v>5.0000000699999998E-2</v>
       </c>
     </row>
@@ -3458,7 +3462,7 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2">
-        <f t="shared" si="0"/>
+        <f>D27</f>
         <v>3</v>
       </c>
     </row>
@@ -3479,7 +3483,7 @@
         <v>7.3050000000000004E-2</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="0"/>
+        <f>D28</f>
         <v>7.9999998200000005E-2</v>
       </c>
     </row>
@@ -3497,7 +3501,7 @@
         <v>6.3948998451000003</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="0"/>
+        <f>D29</f>
         <v>6.3948998451000003</v>
       </c>
     </row>
@@ -3515,7 +3519,7 @@
         <v>4.7136998177000002</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="0"/>
+        <f>D30</f>
         <v>4.7136998177000002</v>
       </c>
     </row>
@@ -3535,9 +3539,8 @@
       <c r="E31" s="9">
         <v>72.380390000000006</v>
       </c>
-      <c r="F31" s="2">
-        <f t="shared" si="0"/>
-        <v>4.5399999619000004</v>
+      <c r="F31" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3555,7 +3558,7 @@
         <v>4.7599998999999999E-3</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="0"/>
+        <f>D32</f>
         <v>4.7599998999999999E-3</v>
       </c>
     </row>
@@ -3573,7 +3576,7 @@
         <v>0.73499999999999899</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="0"/>
+        <f>D33</f>
         <v>0.73499999999999899</v>
       </c>
     </row>
@@ -3590,9 +3593,8 @@
       <c r="D34" s="2">
         <v>7.4074082099999994E-2</v>
       </c>
-      <c r="F34" s="2">
-        <f t="shared" si="0"/>
-        <v>7.4074082099999994E-2</v>
+      <c r="F34" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3609,7 +3611,7 @@
         <v>0.96999999999999897</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="0"/>
+        <f>D35</f>
         <v>0.96999999999999897</v>
       </c>
     </row>
@@ -3626,9 +3628,8 @@
       <c r="D36" s="2">
         <v>0.26999998089999999</v>
       </c>
-      <c r="F36" s="2">
-        <f t="shared" si="0"/>
-        <v>0.26999998089999999</v>
+      <c r="F36" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1">
@@ -3646,7 +3647,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2">
-        <f t="shared" si="0"/>
+        <f>D37</f>
         <v>1E-3</v>
       </c>
     </row>
@@ -3664,7 +3665,7 @@
         <v>0.30000001189999997</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="0"/>
+        <f>D38</f>
         <v>0.30000001189999997</v>
       </c>
     </row>
@@ -3682,7 +3683,7 @@
         <v>5</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="0"/>
+        <f>D39</f>
         <v>5</v>
       </c>
     </row>
@@ -3700,7 +3701,7 @@
         <v>0.5</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="0"/>
+        <f>D40</f>
         <v>0.5</v>
       </c>
     </row>
@@ -3718,7 +3719,7 @@
         <v>0.79000002150000004</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="0"/>
+        <f>D41</f>
         <v>0.79000002150000004</v>
       </c>
     </row>
@@ -3736,7 +3737,7 @@
         <v>0.45030000809999998</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="0"/>
+        <f>D42</f>
         <v>0.45030000809999998</v>
       </c>
     </row>
@@ -3754,7 +3755,7 @@
         <v>0.33300000429999999</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="0"/>
+        <f>D43</f>
         <v>0.33300000429999999</v>
       </c>
     </row>
@@ -3775,9 +3776,8 @@
       <c r="E44" s="9">
         <v>1.3983810000000001</v>
       </c>
-      <c r="F44" s="2">
-        <f t="shared" si="0"/>
-        <v>0.52799999710000001</v>
+      <c r="F44" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3794,9 +3794,8 @@
         <v>3.8001320362</v>
       </c>
       <c r="E45" s="9"/>
-      <c r="F45" s="2">
-        <f t="shared" si="0"/>
-        <v>3.8001320362</v>
+      <c r="F45" s="5">
+        <v>0.8</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3813,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="0"/>
+        <f>D46</f>
         <v>0</v>
       </c>
     </row>
@@ -3845,7 +3844,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F23" sqref="A23:F23"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4040,9 +4039,8 @@
         <v>7.6923076999999996E-3</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>7.6923076999999996E-3</v>
+      <c r="F10" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4079,9 +4077,8 @@
       <c r="E12" s="9">
         <v>42.801670000000001</v>
       </c>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>28.4607543945</v>
+      <c r="F12" s="5">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4097,9 +4094,8 @@
       <c r="D13" s="2">
         <v>17.8949623108</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>17.8949623108</v>
+      <c r="F13" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4286,9 +4282,8 @@
         <v>20000</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="9">
-        <f t="shared" si="0"/>
-        <v>20000</v>
+      <c r="F23" s="5">
+        <v>10000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4443,9 +4438,8 @@
       <c r="E31" s="9">
         <v>56.31326</v>
       </c>
-      <c r="F31" s="2">
-        <f t="shared" si="0"/>
-        <v>27.960887908899998</v>
+      <c r="F31" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4498,9 +4492,8 @@
       <c r="D34" s="2">
         <v>7.4074082099999994E-2</v>
       </c>
-      <c r="F34" s="2">
-        <f t="shared" si="0"/>
-        <v>7.4074082099999994E-2</v>
+      <c r="F34" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4534,9 +4527,8 @@
       <c r="D36" s="2">
         <v>0.26999998089999999</v>
       </c>
-      <c r="F36" s="2">
-        <f t="shared" si="0"/>
-        <v>0.26999998089999999</v>
+      <c r="F36" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1">
@@ -4683,9 +4675,8 @@
       <c r="E44" s="9">
         <v>1.452121</v>
       </c>
-      <c r="F44" s="2">
-        <f t="shared" si="0"/>
-        <v>2.9454386233999998</v>
+      <c r="F44" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4704,9 +4695,8 @@
       <c r="E45" s="9">
         <v>1.2975000000000001</v>
       </c>
-      <c r="F45" s="2">
-        <f t="shared" si="0"/>
-        <v>0.69149309400000003</v>
+      <c r="F45" s="5">
+        <v>0.8</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4759,7 +4749,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F47"/>
+      <selection activeCell="F13" activeCellId="1" sqref="F10 F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4768,7 +4758,9 @@
     <col min="2" max="2" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
@@ -4952,9 +4944,8 @@
         <v>6.2051284999999996E-3</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>6.2051284999999996E-3</v>
+      <c r="F10" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5009,9 +5000,8 @@
       <c r="D13" s="2">
         <v>28.515487670900001</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>28.515487670900001</v>
+      <c r="F13" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5195,9 +5185,8 @@
         <v>20000</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="2">
-        <f t="shared" si="0"/>
-        <v>20000</v>
+      <c r="F23" s="5">
+        <v>10000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5349,9 +5338,8 @@
       <c r="E31" s="9">
         <v>37.854599999999998</v>
       </c>
-      <c r="F31" s="2">
-        <f t="shared" si="0"/>
-        <v>29.3721160889</v>
+      <c r="F31" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5404,9 +5392,8 @@
       <c r="D34" s="2">
         <v>7.4074082099999994E-2</v>
       </c>
-      <c r="F34" s="2">
-        <f t="shared" si="0"/>
-        <v>7.4074082099999994E-2</v>
+      <c r="F34" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5440,9 +5427,8 @@
       <c r="D36" s="2">
         <v>0.26999998089999999</v>
       </c>
-      <c r="F36" s="2">
-        <f t="shared" si="0"/>
-        <v>0.26999998089999999</v>
+      <c r="F36" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1">
@@ -5589,9 +5575,8 @@
       <c r="E44" s="9">
         <v>1.838954</v>
       </c>
-      <c r="F44" s="2">
-        <f t="shared" si="0"/>
-        <v>2.9418973923</v>
+      <c r="F44" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5608,9 +5593,8 @@
         <v>0.6812728643</v>
       </c>
       <c r="E45" s="9"/>
-      <c r="F45" s="2">
-        <f t="shared" si="0"/>
-        <v>0.6812728643</v>
+      <c r="F45" s="5">
+        <v>0.8</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5662,8 +5646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F47"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F13" activeCellId="1" sqref="F10 F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5729,7 +5713,7 @@
         <v>0.23499999939999999</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F47" si="0">D3</f>
+        <f t="shared" ref="F3:F37" si="0">D3</f>
         <v>0.23499999939999999</v>
       </c>
     </row>
@@ -5858,9 +5842,8 @@
         <v>1.5384615399999999E-2</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5384615399999999E-2</v>
+      <c r="F10" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5915,9 +5898,8 @@
       <c r="D13" s="2">
         <v>56.319404602100001</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>56.319404602100001</v>
+      <c r="F13" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6085,9 +6067,8 @@
       <c r="E22" s="2">
         <v>21.373000000000001</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>18.0751247406</v>
+      <c r="F22" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6104,9 +6085,8 @@
         <v>20000</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="2">
-        <f t="shared" si="0"/>
-        <v>20000</v>
+      <c r="F23" s="5">
+        <v>10000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6261,9 +6241,8 @@
       <c r="E31" s="2">
         <v>69.785049999999998</v>
       </c>
-      <c r="F31" s="2">
-        <f t="shared" si="0"/>
-        <v>55.977203369100003</v>
+      <c r="F31" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6316,9 +6295,8 @@
       <c r="D34" s="2">
         <v>7.4074082099999994E-2</v>
       </c>
-      <c r="F34" s="2">
-        <f t="shared" si="0"/>
-        <v>7.4074082099999994E-2</v>
+      <c r="F34" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6335,7 +6313,7 @@
         <v>0.94999999999999896</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="0"/>
+        <f>D35</f>
         <v>0.94999999999999896</v>
       </c>
     </row>
@@ -6352,9 +6330,8 @@
       <c r="D36" s="2">
         <v>0.26999998089999999</v>
       </c>
-      <c r="F36" s="2">
-        <f t="shared" si="0"/>
-        <v>0.26999998089999999</v>
+      <c r="F36" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1">
@@ -6390,7 +6367,7 @@
         <v>0.31190443039999999</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="0"/>
+        <f>D38</f>
         <v>0.31190443039999999</v>
       </c>
     </row>
@@ -6408,7 +6385,7 @@
         <v>5</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="0"/>
+        <f>D39</f>
         <v>5</v>
       </c>
     </row>
@@ -6426,7 +6403,7 @@
         <v>0.05</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="0"/>
+        <f>D40</f>
         <v>0.05</v>
       </c>
     </row>
@@ -6444,7 +6421,7 @@
         <v>0.79000002150000004</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="0"/>
+        <f>D41</f>
         <v>0.79000002150000004</v>
       </c>
     </row>
@@ -6462,7 +6439,7 @@
         <v>0.35075291990000002</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="0"/>
+        <f>D42</f>
         <v>0.35075291990000002</v>
       </c>
     </row>
@@ -6480,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="0"/>
+        <f>D43</f>
         <v>0</v>
       </c>
     </row>
@@ -6501,9 +6478,8 @@
       <c r="E44" s="9">
         <v>1.8728769999999999</v>
       </c>
-      <c r="F44" s="2">
-        <f t="shared" si="0"/>
-        <v>2.9264914988999999</v>
+      <c r="F44" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6520,9 +6496,8 @@
         <v>0.67282187940000004</v>
       </c>
       <c r="E45" s="9"/>
-      <c r="F45" s="2">
-        <f t="shared" si="0"/>
-        <v>0.67282187940000004</v>
+      <c r="F45" s="5">
+        <v>0.8</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -6539,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="0"/>
+        <f>D46</f>
         <v>0</v>
       </c>
     </row>
@@ -6551,7 +6526,7 @@
         <v>53.145866394000002</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="0"/>
+        <f>D47</f>
         <v>53.145866394000002</v>
       </c>
     </row>

--- a/PFT_Parameterizations.xlsx
+++ b/PFT_Parameterizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23900" windowHeight="28260" tabRatio="853" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23900" windowHeight="28260" tabRatio="853"/>
   </bookViews>
   <sheets>
     <sheet name="5 - Temp C3 Grass" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="75">
   <si>
     <t>Param</t>
   </si>
@@ -225,6 +225,30 @@
   </si>
   <si>
     <t>calc</t>
+  </si>
+  <si>
+    <t>calculated from SLA</t>
+  </si>
+  <si>
+    <t>calculated from ssfac (1) &amp; vmfact_c3 (1)</t>
+  </si>
+  <si>
+    <t>calculated (11.3)</t>
+  </si>
+  <si>
+    <t>calculated (4.5)</t>
+  </si>
+  <si>
+    <t>calculated (20.4)</t>
+  </si>
+  <si>
+    <t>calculated (17.5)</t>
+  </si>
+  <si>
+    <t>calculated (6.9)</t>
+  </si>
+  <si>
+    <t>q -- fine root: leaf ratio</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2056,17 +2080,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -2123,7 +2147,7 @@
         <v>0.14699999990000001</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F47" si="0">D3</f>
+        <f t="shared" ref="F3:F9" si="0">D3</f>
         <v>0.14699999990000001</v>
       </c>
     </row>
@@ -2249,9 +2273,8 @@
         <v>1.5384615E-3</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5384615E-3</v>
+      <c r="F10" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2268,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
+        <f>D11</f>
         <v>0</v>
       </c>
     </row>
@@ -2289,7 +2312,7 @@
         <v>11.72458</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
+        <f>D12</f>
         <v>6</v>
       </c>
     </row>
@@ -2306,9 +2329,8 @@
       <c r="D13" s="2">
         <v>124.6847686768</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>124.6847686768</v>
+      <c r="F13" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2326,7 +2348,7 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
+        <f>D14</f>
         <v>0</v>
       </c>
     </row>
@@ -2344,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
+        <f>D15</f>
         <v>1</v>
       </c>
     </row>
@@ -2362,11 +2384,11 @@
         <v>20</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
+        <f>D16</f>
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2380,11 +2402,11 @@
         <v>3.3928000000000001E-3</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
+        <f>D17</f>
         <v>3.3928000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="9" t="s">
         <v>50</v>
       </c>
@@ -2402,11 +2424,11 @@
         <v>192</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="0"/>
+        <f>D18</f>
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -2420,11 +2442,11 @@
         <v>0.94999998809999997</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
+        <f>D19</f>
         <v>0.94999998809999997</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
@@ -2438,11 +2460,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <f>D20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
@@ -2456,11 +2478,11 @@
         <v>0.1000000015</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
+        <f>D21</f>
         <v>0.1000000015</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
         <v>54</v>
       </c>
@@ -2476,12 +2498,14 @@
       <c r="E22" s="9">
         <v>39.463999999999999</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>78.032623290999993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
@@ -2496,11 +2520,11 @@
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9">
-        <f t="shared" si="0"/>
+        <f>D23</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -2514,11 +2538,11 @@
         <v>9.9999997999999993E-3</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="0"/>
+        <f>D24</f>
         <v>9.9999997999999993E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" s="4" t="s">
         <v>44</v>
       </c>
@@ -2532,11 +2556,11 @@
         <v>1.9999999599999999E-2</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="0"/>
+        <f>D25</f>
         <v>1.9999999599999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
@@ -2550,11 +2574,11 @@
         <v>5.0000000699999998E-2</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="0"/>
+        <f>D26</f>
         <v>5.0000000699999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -2569,11 +2593,11 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2">
-        <f t="shared" si="0"/>
+        <f>D27</f>
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" s="4" t="s">
         <v>44</v>
       </c>
@@ -2590,11 +2614,11 @@
         <v>5.8105999999999998E-2</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="0"/>
+        <f>D28</f>
         <v>7.9999998200000005E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29" s="4" t="s">
         <v>44</v>
       </c>
@@ -2608,11 +2632,11 @@
         <v>6.3948998451000003</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="0"/>
+        <f>D29</f>
         <v>6.3948998451000003</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30" s="4" t="s">
         <v>44</v>
       </c>
@@ -2626,11 +2650,11 @@
         <v>4.7136998177000002</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="0"/>
+        <f>D30</f>
         <v>4.7136998177000002</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31" s="9" t="s">
         <v>44</v>
       </c>
@@ -2638,7 +2662,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D31" s="9">
         <v>11.350000381499999</v>
@@ -2649,8 +2673,11 @@
       <c r="F31" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
@@ -2665,7 +2692,7 @@
         <v>4.7599998999999999E-3</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="0"/>
+        <f>D32</f>
         <v>4.7599998999999999E-3</v>
       </c>
     </row>
@@ -2683,7 +2710,7 @@
         <v>0.73499999999999899</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="0"/>
+        <f>D33</f>
         <v>0.73499999999999899</v>
       </c>
     </row>
@@ -2700,9 +2727,8 @@
       <c r="D34" s="2">
         <v>7.4074082099999994E-2</v>
       </c>
-      <c r="F34" s="2">
-        <f t="shared" si="0"/>
-        <v>7.4074082099999994E-2</v>
+      <c r="F34" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2719,7 +2745,7 @@
         <v>0.96999999999999897</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="0"/>
+        <f>D35</f>
         <v>0.96999999999999897</v>
       </c>
     </row>
@@ -2736,9 +2762,8 @@
       <c r="D36" s="2">
         <v>0.26999998089999999</v>
       </c>
-      <c r="F36" s="2">
-        <f t="shared" si="0"/>
-        <v>0.26999998089999999</v>
+      <c r="F36" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1">
@@ -2756,7 +2781,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2">
-        <f t="shared" si="0"/>
+        <f>D37</f>
         <v>0.76599997279999998</v>
       </c>
     </row>
@@ -2774,7 +2799,7 @@
         <v>0.30000001189999997</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="0"/>
+        <f>D38</f>
         <v>0.30000001189999997</v>
       </c>
     </row>
@@ -2792,7 +2817,7 @@
         <v>5</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="0"/>
+        <f>D39</f>
         <v>5</v>
       </c>
     </row>
@@ -2810,7 +2835,7 @@
         <v>0.05</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="0"/>
+        <f>D40</f>
         <v>0.05</v>
       </c>
     </row>
@@ -2828,7 +2853,7 @@
         <v>0.79000002150000004</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="0"/>
+        <f>D41</f>
         <v>0.79000002150000004</v>
       </c>
     </row>
@@ -2846,7 +2871,7 @@
         <v>0.45030000809999998</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="0"/>
+        <f>D42</f>
         <v>0.45030000809999998</v>
       </c>
     </row>
@@ -2867,7 +2892,7 @@
         <v>0.3276</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="0"/>
+        <f>D43</f>
         <v>0.33300000429999999</v>
       </c>
     </row>
@@ -2924,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="0"/>
+        <f>D46</f>
         <v>0</v>
       </c>
     </row>
@@ -2936,7 +2961,7 @@
         <v>77.702987670900001</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="0"/>
+        <f>D47</f>
         <v>77.702987670900001</v>
       </c>
     </row>
@@ -2960,14 +2985,14 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A23" sqref="A23:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -3531,7 +3556,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D31" s="9">
         <v>4.5399999619000004</v>
@@ -3844,14 +3869,14 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="2"/>
     <col min="6" max="6" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -4263,9 +4288,8 @@
       <c r="E22" s="2">
         <v>19.681000000000001</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>13.4641094208</v>
+      <c r="F22" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4430,7 +4454,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D31" s="9">
         <v>27.960887908899998</v>
@@ -4749,14 +4773,14 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F13" activeCellId="1" sqref="F10 F13"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="2"/>
     <col min="6" max="6" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -5166,9 +5190,8 @@
       <c r="D22" s="2">
         <v>19.346931457499998</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>19.346931457499998</v>
+      <c r="F22" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5330,7 +5353,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D31" s="9">
         <v>29.3721160889</v>
@@ -5647,7 +5670,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F13" activeCellId="1" sqref="F10 F13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5812,7 +5835,7 @@
         <v>43</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2">
         <v>1.1274</v>
@@ -6233,7 +6256,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D31" s="2">
         <v>55.977203369100003</v>

--- a/PFT_Parameterizations.xlsx
+++ b/PFT_Parameterizations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23900" windowHeight="28260" tabRatio="853"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="853" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="5 - Temp C3 Grass" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="77">
   <si>
     <t>Param</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>q -- fine root: leaf ratio</t>
+  </si>
+  <si>
+    <t>c2n_leaf (calculated)</t>
+  </si>
+  <si>
+    <t>qsw (calculated)</t>
   </si>
 </sst>
 </file>
@@ -327,8 +333,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="351">
+  <cellStyleXfs count="367">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -694,7 +716,7 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="351">
+  <cellStyles count="367">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -870,6 +892,14 @@
     <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1045,6 +1075,14 @@
     <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1376,7 +1414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2082,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2264,17 +2302,19 @@
         <v>43</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
+      </c>
+      <c r="C10" s="2">
+        <f>C12/3900</f>
+        <v>1.5384615384615385E-3</v>
       </c>
       <c r="D10" s="2">
         <v>1.5384615E-3</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="5" t="s">
-        <v>66</v>
+      <c r="F10" s="2">
+        <f>F12/3900</f>
+        <v>3.0063025641025639E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2312,8 +2352,7 @@
         <v>11.72458</v>
       </c>
       <c r="F12" s="2">
-        <f>D12</f>
-        <v>6</v>
+        <v>11.72458</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2348,7 +2387,7 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="2">
-        <f>D14</f>
+        <f t="shared" ref="F14:F21" si="1">D14</f>
         <v>0</v>
       </c>
     </row>
@@ -2366,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <f>D15</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2384,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="F16" s="2">
-        <f>D16</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -2402,7 +2441,7 @@
         <v>3.3928000000000001E-3</v>
       </c>
       <c r="F17" s="2">
-        <f>D17</f>
+        <f t="shared" si="1"/>
         <v>3.3928000000000001E-3</v>
       </c>
     </row>
@@ -2424,7 +2463,7 @@
         <v>192</v>
       </c>
       <c r="F18" s="2">
-        <f>D18</f>
+        <f t="shared" si="1"/>
         <v>193</v>
       </c>
     </row>
@@ -2442,7 +2481,7 @@
         <v>0.94999998809999997</v>
       </c>
       <c r="F19" s="2">
-        <f>D19</f>
+        <f t="shared" si="1"/>
         <v>0.94999998809999997</v>
       </c>
     </row>
@@ -2460,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <f>D20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2478,7 +2517,7 @@
         <v>0.1000000015</v>
       </c>
       <c r="F21" s="2">
-        <f>D21</f>
+        <f t="shared" si="1"/>
         <v>0.1000000015</v>
       </c>
     </row>
@@ -2487,10 +2526,11 @@
         <v>54</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>56</v>
+        <v>75</v>
+      </c>
+      <c r="C22" s="9">
+        <f>1000/((0.11289+0.12947*15.625)*C12)</f>
+        <v>78.032625831023083</v>
       </c>
       <c r="D22" s="9">
         <v>78.032623290999993</v>
@@ -2498,8 +2538,9 @@
       <c r="E22" s="9">
         <v>39.463999999999999</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>66</v>
+      <c r="F22" s="7">
+        <f>1000/((0.11289+0.12947*15.625)*F12)</f>
+        <v>39.932838104745628</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>67</v>
@@ -2519,9 +2560,8 @@
         <v>1000</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="9">
-        <f>D23</f>
-        <v>1000</v>
+      <c r="F23" s="5">
+        <v>2000</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2538,7 +2578,7 @@
         <v>9.9999997999999993E-3</v>
       </c>
       <c r="F24" s="2">
-        <f>D24</f>
+        <f t="shared" ref="F24:F30" si="2">D24</f>
         <v>9.9999997999999993E-3</v>
       </c>
     </row>
@@ -2556,7 +2596,7 @@
         <v>1.9999999599999999E-2</v>
       </c>
       <c r="F25" s="2">
-        <f>D25</f>
+        <f t="shared" si="2"/>
         <v>1.9999999599999999E-2</v>
       </c>
     </row>
@@ -2574,7 +2614,7 @@
         <v>5.0000000699999998E-2</v>
       </c>
       <c r="F26" s="2">
-        <f>D26</f>
+        <f t="shared" si="2"/>
         <v>5.0000000699999998E-2</v>
       </c>
     </row>
@@ -2593,7 +2633,7 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2">
-        <f>D27</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2614,7 +2654,7 @@
         <v>5.8105999999999998E-2</v>
       </c>
       <c r="F28" s="2">
-        <f>D28</f>
+        <f t="shared" si="2"/>
         <v>7.9999998200000005E-2</v>
       </c>
     </row>
@@ -2632,7 +2672,7 @@
         <v>6.3948998451000003</v>
       </c>
       <c r="F29" s="2">
-        <f>D29</f>
+        <f t="shared" si="2"/>
         <v>6.3948998451000003</v>
       </c>
     </row>
@@ -2650,7 +2690,7 @@
         <v>4.7136998177000002</v>
       </c>
       <c r="F30" s="2">
-        <f>D30</f>
+        <f t="shared" si="2"/>
         <v>4.7136998177000002</v>
       </c>
     </row>
@@ -2671,7 +2711,7 @@
         <v>36.388370000000002</v>
       </c>
       <c r="F31" s="5">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>68</v>
@@ -2781,7 +2821,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2">
-        <f>D37</f>
+        <f t="shared" ref="F37:F43" si="3">D37</f>
         <v>0.76599997279999998</v>
       </c>
     </row>
@@ -2799,7 +2839,7 @@
         <v>0.30000001189999997</v>
       </c>
       <c r="F38" s="2">
-        <f>D38</f>
+        <f t="shared" si="3"/>
         <v>0.30000001189999997</v>
       </c>
     </row>
@@ -2817,7 +2857,7 @@
         <v>5</v>
       </c>
       <c r="F39" s="2">
-        <f>D39</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -2835,7 +2875,7 @@
         <v>0.05</v>
       </c>
       <c r="F40" s="2">
-        <f>D40</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
     </row>
@@ -2853,7 +2893,7 @@
         <v>0.79000002150000004</v>
       </c>
       <c r="F41" s="2">
-        <f>D41</f>
+        <f t="shared" si="3"/>
         <v>0.79000002150000004</v>
       </c>
     </row>
@@ -2871,7 +2911,7 @@
         <v>0.45030000809999998</v>
       </c>
       <c r="F42" s="2">
-        <f>D42</f>
+        <f t="shared" si="3"/>
         <v>0.45030000809999998</v>
       </c>
     </row>
@@ -2892,7 +2932,7 @@
         <v>0.3276</v>
       </c>
       <c r="F43" s="2">
-        <f>D43</f>
+        <f t="shared" si="3"/>
         <v>0.33300000429999999</v>
       </c>
     </row>
@@ -2984,8 +3024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:F32"/>
+    <sheetView topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3166,17 +3206,19 @@
         <v>43</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
+      </c>
+      <c r="C10" s="2">
+        <f>C12/3900</f>
+        <v>2.5641025641025641E-3</v>
       </c>
       <c r="D10" s="2">
         <v>2.5641026000000002E-3</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="5" t="s">
-        <v>66</v>
+      <c r="F10" s="2">
+        <f>F12/3900</f>
+        <v>2.7457256410256411E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3213,8 +3255,8 @@
       <c r="E12" s="2">
         <v>10.70833</v>
       </c>
-      <c r="F12" s="7">
-        <v>10.7</v>
+      <c r="F12" s="2">
+        <v>10.70833</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3387,16 +3429,18 @@
         <v>54</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>75</v>
+      </c>
+      <c r="C22" s="2">
+        <f>1000/((0.11289+0.12947*6.25)*C12)</f>
+        <v>108.45075386830281</v>
       </c>
       <c r="D22" s="2">
         <v>108.4507446289</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>66</v>
+      <c r="F22" s="2">
+        <f>1000/((0.11289+0.12947*6.25)*F12)</f>
+        <v>101.27700011888206</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3413,9 +3457,8 @@
         <v>1000</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="7">
-        <f>D23</f>
-        <v>1000</v>
+      <c r="F23" s="5">
+        <v>2000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3432,7 +3475,7 @@
         <v>9.9999997999999993E-3</v>
       </c>
       <c r="F24" s="2">
-        <f>D24</f>
+        <f t="shared" ref="F24:F30" si="1">D24</f>
         <v>9.9999997999999993E-3</v>
       </c>
     </row>
@@ -3450,7 +3493,7 @@
         <v>1.9999999599999999E-2</v>
       </c>
       <c r="F25" s="2">
-        <f>D25</f>
+        <f t="shared" si="1"/>
         <v>1.9999999599999999E-2</v>
       </c>
     </row>
@@ -3468,7 +3511,7 @@
         <v>5.0000000699999998E-2</v>
       </c>
       <c r="F26" s="2">
-        <f>D26</f>
+        <f t="shared" si="1"/>
         <v>5.0000000699999998E-2</v>
       </c>
     </row>
@@ -3487,7 +3530,7 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2">
-        <f>D27</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3508,7 +3551,7 @@
         <v>7.3050000000000004E-2</v>
       </c>
       <c r="F28" s="2">
-        <f>D28</f>
+        <f t="shared" si="1"/>
         <v>7.9999998200000005E-2</v>
       </c>
     </row>
@@ -3526,7 +3569,7 @@
         <v>6.3948998451000003</v>
       </c>
       <c r="F29" s="2">
-        <f>D29</f>
+        <f t="shared" si="1"/>
         <v>6.3948998451000003</v>
       </c>
     </row>
@@ -3544,7 +3587,7 @@
         <v>4.7136998177000002</v>
       </c>
       <c r="F30" s="2">
-        <f>D30</f>
+        <f t="shared" si="1"/>
         <v>4.7136998177000002</v>
       </c>
     </row>
@@ -3564,8 +3607,8 @@
       <c r="E31" s="9">
         <v>72.380390000000006</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>66</v>
+      <c r="F31" s="5">
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3672,7 +3715,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2">
-        <f>D37</f>
+        <f t="shared" ref="F37:F43" si="2">D37</f>
         <v>1E-3</v>
       </c>
     </row>
@@ -3690,7 +3733,7 @@
         <v>0.30000001189999997</v>
       </c>
       <c r="F38" s="2">
-        <f>D38</f>
+        <f t="shared" si="2"/>
         <v>0.30000001189999997</v>
       </c>
     </row>
@@ -3708,7 +3751,7 @@
         <v>5</v>
       </c>
       <c r="F39" s="2">
-        <f>D39</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -3726,7 +3769,7 @@
         <v>0.5</v>
       </c>
       <c r="F40" s="2">
-        <f>D40</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
@@ -3744,7 +3787,7 @@
         <v>0.79000002150000004</v>
       </c>
       <c r="F41" s="2">
-        <f>D41</f>
+        <f t="shared" si="2"/>
         <v>0.79000002150000004</v>
       </c>
     </row>
@@ -3762,7 +3805,7 @@
         <v>0.45030000809999998</v>
       </c>
       <c r="F42" s="2">
-        <f>D42</f>
+        <f t="shared" si="2"/>
         <v>0.45030000809999998</v>
       </c>
     </row>
@@ -3780,7 +3823,7 @@
         <v>0.33300000429999999</v>
       </c>
       <c r="F43" s="2">
-        <f>D43</f>
+        <f t="shared" si="2"/>
         <v>0.33300000429999999</v>
       </c>
     </row>
@@ -3868,8 +3911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4055,17 +4098,19 @@
         <v>43</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
+      </c>
+      <c r="C10" s="2">
+        <f>C12/3900</f>
+        <v>7.6923076923076927E-3</v>
       </c>
       <c r="D10" s="2">
         <v>7.6923076999999996E-3</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="5" t="s">
-        <v>66</v>
+      <c r="F10" s="2">
+        <f>F12/3900</f>
+        <v>7.6923076923076927E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4277,10 +4322,11 @@
         <v>54</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>75</v>
+      </c>
+      <c r="C22" s="2">
+        <f>1000/((0.11289+0.12947*18.25)*C12)</f>
+        <v>13.464110236056147</v>
       </c>
       <c r="D22" s="2">
         <v>13.4641094208</v>
@@ -4288,8 +4334,9 @@
       <c r="E22" s="2">
         <v>19.681000000000001</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>66</v>
+      <c r="F22" s="2">
+        <f>1000/((0.11289+0.12947*18.25)*F12)</f>
+        <v>13.464110236056147</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4306,7 +4353,7 @@
         <v>20000</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="5">
+      <c r="F23" s="7">
         <v>10000</v>
       </c>
     </row>
@@ -4344,9 +4391,8 @@
       <c r="E25" s="2">
         <v>1.9126339999999999E-2</v>
       </c>
-      <c r="F25" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3985305600000001E-2</v>
+      <c r="F25" s="5">
+        <v>1.9130000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4462,8 +4508,8 @@
       <c r="E31" s="9">
         <v>56.31326</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>66</v>
+      <c r="F31" s="5">
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4772,8 +4818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4959,17 +5005,19 @@
         <v>43</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
+      </c>
+      <c r="C10" s="2">
+        <f>C12/3900</f>
+        <v>6.2051282051282051E-3</v>
       </c>
       <c r="D10" s="2">
         <v>6.2051284999999996E-3</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="5" t="s">
-        <v>66</v>
+      <c r="F10" s="2">
+        <f>F12/3900</f>
+        <v>7.6504394335641024E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5182,16 +5230,18 @@
         <v>54</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>75</v>
+      </c>
+      <c r="C22" s="2">
+        <f>1000/((0.11289+0.12947*15.625)*C12)</f>
+        <v>19.3469320242206</v>
       </c>
       <c r="D22" s="2">
         <v>19.346931457499998</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>66</v>
+      <c r="F22" s="2">
+        <f>1000/((0.11289+0.12947*15.625)*F12)</f>
+        <v>15.691934382161586</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5208,7 +5258,7 @@
         <v>20000</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="5">
+      <c r="F23" s="7">
         <v>10000</v>
       </c>
     </row>
@@ -5361,8 +5411,8 @@
       <c r="E31" s="9">
         <v>37.854599999999998</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>66</v>
+      <c r="F31" s="5">
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5372,7 +5422,7 @@
       <c r="B32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="7">
         <f>300/(365*24*60*60)</f>
         <v>9.5129375951293768E-6</v>
       </c>
@@ -5669,8 +5719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5856,17 +5906,19 @@
         <v>43</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
+      </c>
+      <c r="C10" s="2">
+        <f>C12/3900</f>
+        <v>1.5384615384615385E-2</v>
       </c>
       <c r="D10" s="2">
         <v>1.5384615399999999E-2</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="5" t="s">
-        <v>66</v>
+      <c r="F10" s="2">
+        <f>F12/3900</f>
+        <v>1.0133104568871794E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6079,10 +6131,11 @@
         <v>54</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>75</v>
+      </c>
+      <c r="C22" s="2">
+        <f>1000/((0.11289+0.12947*6.25)*C12)</f>
+        <v>18.075125644717136</v>
       </c>
       <c r="D22" s="2">
         <v>18.0751247406</v>
@@ -6090,8 +6143,9 @@
       <c r="E22" s="2">
         <v>21.373000000000001</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>66</v>
+      <c r="F22" s="2">
+        <f>1000/((0.11289+0.12947*6.25)*F12)</f>
+        <v>27.442611904628972</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6108,7 +6162,7 @@
         <v>20000</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="5">
+      <c r="F23" s="7">
         <v>10000</v>
       </c>
     </row>
@@ -6264,8 +6318,8 @@
       <c r="E31" s="2">
         <v>69.785049999999998</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>66</v>
+      <c r="F31" s="5">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6390,7 +6444,7 @@
         <v>0.31190443039999999</v>
       </c>
       <c r="F38" s="2">
-        <f>D38</f>
+        <f t="shared" ref="F38:F43" si="1">D38</f>
         <v>0.31190443039999999</v>
       </c>
     </row>
@@ -6408,7 +6462,7 @@
         <v>5</v>
       </c>
       <c r="F39" s="2">
-        <f>D39</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -6426,7 +6480,7 @@
         <v>0.05</v>
       </c>
       <c r="F40" s="2">
-        <f>D40</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
     </row>
@@ -6444,7 +6498,7 @@
         <v>0.79000002150000004</v>
       </c>
       <c r="F41" s="2">
-        <f>D41</f>
+        <f t="shared" si="1"/>
         <v>0.79000002150000004</v>
       </c>
     </row>
@@ -6462,7 +6516,7 @@
         <v>0.35075291990000002</v>
       </c>
       <c r="F42" s="2">
-        <f>D42</f>
+        <f t="shared" si="1"/>
         <v>0.35075291990000002</v>
       </c>
     </row>
@@ -6480,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="2">
-        <f>D43</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/PFT_Parameterizations.xlsx
+++ b/PFT_Parameterizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="853" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17500" windowHeight="17440" tabRatio="853" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="5 - Temp C3 Grass" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="76">
   <si>
     <t>Param</t>
   </si>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t>calculated (17.5)</t>
-  </si>
-  <si>
-    <t>calculated (6.9)</t>
   </si>
   <si>
     <t>q -- fine root: leaf ratio</t>
@@ -304,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +320,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -702,7 +705,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -715,6 +718,7 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="367">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1415,7 +1419,8 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2120,8 +2125,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2302,7 +2308,7 @@
         <v>43</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2">
         <f>C12/3900</f>
@@ -2526,7 +2532,7 @@
         <v>54</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="9">
         <f>1000/((0.11289+0.12947*15.625)*C12)</f>
@@ -3024,8 +3030,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A19" sqref="A19"/>
+      <selection pane="topRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3206,7 +3214,7 @@
         <v>43</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2">
         <f>C12/3900</f>
@@ -3429,7 +3437,7 @@
         <v>54</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2">
         <f>1000/((0.11289+0.12947*6.25)*C12)</f>
@@ -3492,9 +3500,8 @@
       <c r="D25" s="2">
         <v>1.9999999599999999E-2</v>
       </c>
-      <c r="F25" s="2">
-        <f t="shared" si="1"/>
-        <v>1.9999999599999999E-2</v>
+      <c r="F25" s="12">
+        <v>0.03</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3607,8 +3614,8 @@
       <c r="E31" s="9">
         <v>72.380390000000006</v>
       </c>
-      <c r="F31" s="5">
-        <v>45</v>
+      <c r="F31" s="12">
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3911,8 +3918,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A19" sqref="A19"/>
+      <selection pane="topRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4098,7 +4107,7 @@
         <v>43</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2">
         <f>C12/3900</f>
@@ -4322,7 +4331,7 @@
         <v>54</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2">
         <f>1000/((0.11289+0.12947*18.25)*C12)</f>
@@ -4354,7 +4363,7 @@
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="7">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4391,8 +4400,8 @@
       <c r="E25" s="2">
         <v>1.9126339999999999E-2</v>
       </c>
-      <c r="F25" s="5">
-        <v>1.9130000000000001E-2</v>
+      <c r="F25" s="12">
+        <v>0.03</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4508,8 +4517,8 @@
       <c r="E31" s="9">
         <v>56.31326</v>
       </c>
-      <c r="F31" s="5">
-        <v>45</v>
+      <c r="F31" s="12">
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4818,8 +4827,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A19" sqref="A19"/>
+      <selection pane="topRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5005,7 +5016,7 @@
         <v>43</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2">
         <f>C12/3900</f>
@@ -5230,7 +5241,7 @@
         <v>54</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2">
         <f>1000/((0.11289+0.12947*15.625)*C12)</f>
@@ -5259,7 +5270,7 @@
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="7">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5719,14 +5730,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="2"/>
@@ -5885,7 +5896,7 @@
         <v>43</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2">
         <v>1.1274</v>
@@ -5906,7 +5917,7 @@
         <v>43</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2">
         <f>C12/3900</f>
@@ -6131,7 +6142,7 @@
         <v>54</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2">
         <f>1000/((0.11289+0.12947*6.25)*C12)</f>
@@ -6163,7 +6174,7 @@
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="7">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6309,8 +6320,8 @@
       <c r="B31" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>73</v>
+      <c r="C31" s="2">
+        <v>6.9</v>
       </c>
       <c r="D31" s="2">
         <v>55.977203369100003</v>
@@ -6318,8 +6329,8 @@
       <c r="E31" s="2">
         <v>69.785049999999998</v>
       </c>
-      <c r="F31" s="5">
-        <v>55</v>
+      <c r="F31" s="12">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:6">

--- a/PFT_Parameterizations.xlsx
+++ b/PFT_Parameterizations.xlsx
@@ -301,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +326,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -705,7 +711,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -719,6 +725,7 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="367">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2125,9 +2132,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F22" sqref="F22"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2428,8 +2435,7 @@
       <c r="D16" s="2">
         <v>20</v>
       </c>
-      <c r="F16" s="2">
-        <f t="shared" si="1"/>
+      <c r="F16" s="13">
         <v>20</v>
       </c>
     </row>
@@ -3033,7 +3039,7 @@
     <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="F22" sqref="F22"/>
+      <selection pane="topRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3334,9 +3340,8 @@
       <c r="D16" s="2">
         <v>20</v>
       </c>
-      <c r="F16" s="2">
-        <f>D16</f>
-        <v>20</v>
+      <c r="F16" s="13">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3918,10 +3923,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="F23" sqref="F23"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4227,8 +4232,7 @@
       <c r="D16" s="2">
         <v>20</v>
       </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
+      <c r="F16" s="13">
         <v>20</v>
       </c>
     </row>
@@ -4827,10 +4831,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="F25" sqref="F25"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5137,9 +5141,8 @@
       <c r="D16" s="2">
         <v>20</v>
       </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="F16" s="13">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5730,8 +5733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6038,9 +6041,8 @@
       <c r="D16" s="2">
         <v>19.7858428955</v>
       </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>19.7858428955</v>
+      <c r="F16" s="13">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6">

--- a/PFT_Parameterizations.xlsx
+++ b/PFT_Parameterizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17500" windowHeight="17440" tabRatio="853" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17500" windowHeight="17440" tabRatio="853" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="5 - Temp C3 Grass" sheetId="1" r:id="rId1"/>
@@ -2132,9 +2132,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F17" sqref="F17"/>
+      <selection pane="topRight" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2436,7 +2436,7 @@
         <v>20</v>
       </c>
       <c r="F16" s="13">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2966,7 +2966,7 @@
         <v>3.3520799999999999</v>
       </c>
       <c r="F44" s="5">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="5">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3036,10 +3036,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="F16" sqref="F16"/>
+      <selection pane="topRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3857,7 +3857,7 @@
         <v>1.3983810000000001</v>
       </c>
       <c r="F44" s="5">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="5">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3923,7 +3923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
       <selection pane="topRight" activeCell="F17" sqref="F17"/>
@@ -4233,7 +4233,7 @@
         <v>20</v>
       </c>
       <c r="F16" s="13">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4759,7 +4759,7 @@
         <v>1.452121</v>
       </c>
       <c r="F44" s="5">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4779,7 +4779,7 @@
         <v>1.2975000000000001</v>
       </c>
       <c r="F45" s="5">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5142,7 +5142,7 @@
         <v>20</v>
       </c>
       <c r="F16" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5663,7 +5663,7 @@
         <v>1.838954</v>
       </c>
       <c r="F44" s="5">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="5">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5733,8 +5733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6569,7 +6569,7 @@
         <v>1.8728769999999999</v>
       </c>
       <c r="F44" s="5">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="5">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="46" spans="1:6">

--- a/PFT_Parameterizations.xlsx
+++ b/PFT_Parameterizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17500" windowHeight="17440" tabRatio="853" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17500" windowHeight="17440" tabRatio="853" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="5 - Temp C3 Grass" sheetId="1" r:id="rId1"/>
@@ -2132,9 +2132,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F47" sqref="F47"/>
+      <selection pane="topRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2327,7 +2327,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2">
         <f>F12/3900</f>
-        <v>3.0063025641025639E-3</v>
+        <v>2.0512820512820513E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2364,8 +2364,8 @@
       <c r="E12" s="2">
         <v>11.72458</v>
       </c>
-      <c r="F12" s="2">
-        <v>11.72458</v>
+      <c r="F12" s="13">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="F22" s="7">
         <f>1000/((0.11289+0.12947*15.625)*F12)</f>
-        <v>39.932838104745628</v>
+        <v>58.524469373267308</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>67</v>
@@ -2743,7 +2743,7 @@
       <c r="D32" s="2">
         <v>4.7599998999999999E-3</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="13">
         <f>D32</f>
         <v>4.7599998999999999E-3</v>
       </c>
@@ -3036,10 +3036,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="F46" sqref="F46"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3637,7 +3637,7 @@
       <c r="D32" s="2">
         <v>4.7599998999999999E-3</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="13">
         <f>D32</f>
         <v>4.7599998999999999E-3</v>
       </c>
@@ -3923,10 +3923,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="F17" sqref="F17"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4539,7 +4539,7 @@
       <c r="D32" s="2">
         <v>4.9651670000000004E-3</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="13">
         <f t="shared" si="0"/>
         <v>4.9651670000000004E-3</v>
       </c>
@@ -4834,7 +4834,7 @@
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="F17" sqref="F17"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5443,7 +5443,7 @@
       <c r="D32" s="2">
         <v>4.6734586000000003E-3</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="13">
         <f t="shared" si="0"/>
         <v>4.6734586000000003E-3</v>
       </c>
@@ -5733,8 +5733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6349,7 +6349,7 @@
       <c r="D32" s="2">
         <v>4.7390493999999997E-3</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="13">
         <f t="shared" si="0"/>
         <v>4.7390493999999997E-3</v>
       </c>

--- a/PFT_Parameterizations.xlsx
+++ b/PFT_Parameterizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="0" windowWidth="29240" windowHeight="27100" tabRatio="853" activeTab="5"/>
+    <workbookView xWindow="140" yWindow="0" windowWidth="29240" windowHeight="27100" tabRatio="853" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="5 - Temp C3 Grass" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="120">
   <si>
     <t>Param</t>
   </si>
@@ -370,6 +370,24 @@
   <si>
     <t>Kelly South Pine (Bety/Pecan)</t>
   </si>
+  <si>
+    <t xml:space="preserve">between mean-2sd late conifer &amp; general temperate conifer </t>
+  </si>
+  <si>
+    <t>mean + 2 SD</t>
+  </si>
+  <si>
+    <t>generic temp decid</t>
+  </si>
+  <si>
+    <t>made up to be more similar to conifers</t>
+  </si>
+  <si>
+    <t>from mid-hardwood</t>
+  </si>
+  <si>
+    <t>same as north pine</t>
+  </si>
 </sst>
 </file>
 
@@ -423,7 +441,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,12 +510,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2DCDB"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -518,7 +530,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1369">
+  <cellStyleXfs count="1371">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1888,8 +1900,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1912,12 +1926,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1369">
+  <cellStyles count="1371">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2602,6 +2615,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1364" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1366" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1370" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3286,6 +3300,7 @@
     <cellStyle name="Hyperlink" xfId="1363" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1365" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1369" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4324,9 +4339,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I45" sqref="I45"/>
+      <selection pane="topRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4692,7 +4707,7 @@
         <v>3.3928000000000001E-3</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" ref="H17:H29" si="3">C17</f>
+        <f t="shared" ref="H17:H27" si="3">C17</f>
         <v>3.3928000000000001E-3</v>
       </c>
     </row>
@@ -4819,7 +4834,7 @@
       <c r="E23" s="7">
         <v>4426.9797352549103</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="22">
         <f>E23</f>
         <v>4426.9797352549103</v>
       </c>
@@ -4952,7 +4967,7 @@
       <c r="E29" s="7">
         <v>8.9086404610425198</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="22">
         <f>E29</f>
         <v>8.9086404610425198</v>
       </c>
@@ -4973,7 +4988,7 @@
       <c r="E30" s="7">
         <v>5.0524412393947404</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="22">
         <f>E30</f>
         <v>5.0524412393947404</v>
       </c>
@@ -5025,7 +5040,7 @@
       <c r="E32" s="7">
         <v>4.5659112777780304E-3</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="24">
         <v>0.62139999999999995</v>
       </c>
     </row>
@@ -5117,7 +5132,7 @@
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="25">
+      <c r="H37" s="24">
         <v>0.62139999999999995</v>
       </c>
     </row>
@@ -5137,7 +5152,7 @@
       <c r="E38" s="7">
         <v>0.32102528456778301</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="24">
         <v>0.62139999999999995</v>
       </c>
     </row>
@@ -5155,7 +5170,7 @@
         <v>5</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" ref="H38:H43" si="5">C39</f>
+        <f t="shared" ref="H39:H41" si="5">C39</f>
         <v>5</v>
       </c>
     </row>
@@ -5217,11 +5232,11 @@
       <c r="E42" s="7">
         <v>0.27140086835400401</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="22">
         <f>E42</f>
         <v>0.27140086835400401</v>
       </c>
-      <c r="I42" s="23"/>
+      <c r="I42" s="22"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="7" t="s">
@@ -5294,7 +5309,7 @@
       <c r="E45" s="7">
         <v>0.62139806485750004</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="22">
         <f>E45</f>
         <v>0.62139806485750004</v>
       </c>
@@ -5347,10 +5362,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="I9" sqref="I9"/>
+      <selection pane="topRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5536,7 +5551,7 @@
       <c r="E9" s="7">
         <v>0.76880331308720196</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <f>E9</f>
         <v>0.76880331308720196</v>
       </c>
@@ -5689,7 +5704,7 @@
       <c r="E16" s="7">
         <v>19.6430837553782</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="22">
         <f>E16</f>
         <v>19.6430837553782</v>
       </c>
@@ -5746,7 +5761,7 @@
       <c r="E19" s="7">
         <v>0.94947512611457996</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <f>E19</f>
         <v>0.94947512611457996</v>
       </c>
@@ -5825,12 +5840,12 @@
       <c r="D23" s="7">
         <v>1000</v>
       </c>
-      <c r="I23" s="23">
-        <f>C23</f>
-        <v>1000</v>
+      <c r="I23" s="22">
+        <f>'6 - North Pine'!H23</f>
+        <v>4426.9797352549103</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5888,7 +5903,7 @@
       <c r="E26" s="7">
         <v>0.101805307921965</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="22">
         <f>E26</f>
         <v>0.101805307921965</v>
       </c>
@@ -5961,7 +5976,7 @@
       <c r="E29" s="7">
         <v>9.0244611720554495</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="22">
         <f>E29</f>
         <v>9.0244611720554495</v>
       </c>
@@ -5982,7 +5997,7 @@
       <c r="E30" s="7">
         <v>5.0242533271584797</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="22">
         <f>E30</f>
         <v>5.0242533271584797</v>
       </c>
@@ -6010,8 +6025,10 @@
         <v>72.380390000000006</v>
       </c>
       <c r="I31" s="16">
-        <f>H31</f>
-        <v>72.380390000000006</v>
+        <v>50</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -6031,7 +6048,7 @@
       <c r="E32" s="7">
         <v>4.4835993117889996E-3</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="22">
         <f>E32</f>
         <v>4.4835993117889996E-3</v>
       </c>
@@ -6130,7 +6147,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="23">
+      <c r="I37" s="22">
         <f>E37</f>
         <v>0.39221339141122002</v>
       </c>
@@ -6151,7 +6168,7 @@
       <c r="E38" s="7">
         <v>0.31896799063861297</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="22">
         <f>E38</f>
         <v>0.31896799063861297</v>
       </c>
@@ -6211,7 +6228,7 @@
       <c r="E41" s="7">
         <v>0.50661508232696595</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="22">
         <f>E41</f>
         <v>0.50661508232696595</v>
       </c>
@@ -6232,11 +6249,11 @@
       <c r="E42" s="7">
         <v>0.27136302697237402</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="22">
         <f>E42</f>
         <v>0.27136302697237402</v>
       </c>
-      <c r="J42" s="23" t="s">
+      <c r="J42" s="22" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6372,7 +6389,7 @@
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="K13" sqref="K13"/>
+      <selection pane="topRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6381,14 +6398,14 @@
     <col min="2" max="2" width="26.33203125" style="7" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="7" customWidth="1"/>
     <col min="4" max="5" width="13" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13" style="24" customWidth="1"/>
+    <col min="6" max="6" width="13" style="23" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" style="7" customWidth="1"/>
     <col min="8" max="10" width="10.83203125" style="7" customWidth="1"/>
     <col min="11" max="11" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
@@ -6423,7 +6440,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="7" t="s">
         <v>42</v>
       </c>
@@ -6441,7 +6458,7 @@
         <v>1.29E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="7" t="s">
         <v>42</v>
       </c>
@@ -6459,7 +6476,7 @@
         <v>2.648E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="7" t="s">
         <v>42</v>
       </c>
@@ -6477,7 +6494,7 @@
         <v>22.6799</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="7" t="s">
         <v>42</v>
       </c>
@@ -6495,7 +6512,7 @@
         <v>1.7477</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
@@ -6513,7 +6530,7 @@
         <v>2.9595400000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
@@ -6531,7 +6548,7 @@
         <v>-6.5339999999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -6549,7 +6566,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
@@ -6565,7 +6582,7 @@
       <c r="E9" s="7">
         <v>0.63578678943003997</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="23">
         <v>0.63596261938961296</v>
       </c>
       <c r="G9" s="7">
@@ -6585,7 +6602,7 @@
         <v>0.63580000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="3" customFormat="1">
+    <row r="10" spans="1:12" s="3" customFormat="1">
       <c r="A10" s="7" t="s">
         <v>42</v>
       </c>
@@ -6600,17 +6617,19 @@
         <v>7.6923076999999996E-3</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="24"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="13">
-        <f>K12/3900</f>
-        <v>1.097478717948718E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
@@ -6628,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
@@ -6644,7 +6663,7 @@
       <c r="E12" s="7">
         <v>28.460754447603101</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="23">
         <v>42.799007023340998</v>
       </c>
       <c r="G12" s="7">
@@ -6664,7 +6683,7 @@
         <v>42.801670000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="7" t="s">
         <v>54</v>
       </c>
@@ -6682,7 +6701,7 @@
         <v>calculated</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
         <v>44</v>
       </c>
@@ -6705,7 +6724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="7" t="s">
         <v>49</v>
       </c>
@@ -6723,7 +6742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="7" t="s">
         <v>49</v>
       </c>
@@ -6736,10 +6755,10 @@
       <c r="D16" s="7">
         <v>20</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="23">
         <v>43.108631057548301</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="22">
         <f>F16</f>
         <v>43.108631057548301</v>
       </c>
@@ -6794,10 +6813,10 @@
       <c r="D19" s="7">
         <v>0.94999998809999997</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="23">
         <v>0.947713780677375</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="22">
         <f>F19</f>
         <v>0.947713780677375</v>
       </c>
@@ -6852,7 +6871,7 @@
       <c r="D22" s="7">
         <v>13.4641094208</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="23">
         <v>19.680132766755001</v>
       </c>
       <c r="G22" s="7">
@@ -6879,11 +6898,13 @@
       <c r="D23" s="7">
         <v>20000</v>
       </c>
-      <c r="K23" s="23">
-        <f>C23</f>
-        <v>10000</v>
-      </c>
-      <c r="L23" s="4"/>
+      <c r="K23" s="22">
+        <f>'10 -  Mid Hardwood'!K23</f>
+        <v>7904</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="11" t="s">
@@ -6922,7 +6943,7 @@
       <c r="E25" s="7">
         <v>3.39853068703957E-2</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="23">
         <v>1.9126424044692301E-2</v>
       </c>
       <c r="G25" s="7">
@@ -6955,10 +6976,10 @@
       <c r="D26" s="7">
         <v>5.0000000699999998E-2</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="23">
         <v>0.101006790121505</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="22">
         <f>F26</f>
         <v>0.101006790121505</v>
       </c>
@@ -7002,7 +7023,7 @@
       <c r="E28" s="7">
         <v>5.7775914219179998E-2</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="23">
         <v>5.73388436893933E-2</v>
       </c>
       <c r="G28" s="7">
@@ -7038,7 +7059,7 @@
       <c r="E29" s="7">
         <v>5.8748330304446501</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="23">
         <v>6.1731631374525104</v>
       </c>
       <c r="G29" s="7">
@@ -7071,10 +7092,10 @@
       <c r="D30" s="7">
         <v>4.7136998177000002</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="23">
         <v>4.98546861532368</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="22">
         <f>F30</f>
         <v>4.98546861532368</v>
       </c>
@@ -7095,7 +7116,7 @@
       <c r="E31" s="7">
         <v>27.960888738123401</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="23">
         <v>56.316556547444598</v>
       </c>
       <c r="G31" s="7">
@@ -7111,8 +7132,10 @@
         <v>56.289279999999998</v>
       </c>
       <c r="K31" s="2">
-        <f>I31</f>
-        <v>56.31326</v>
+        <v>57.3</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -7132,10 +7155,10 @@
       <c r="E32" s="7">
         <v>4.9651669160430296E-3</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="23">
         <v>4.2579909421441697E-3</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="22">
         <f>F32</f>
         <v>4.2579909421441697E-3</v>
       </c>
@@ -7175,7 +7198,7 @@
         <v>7.4074082099999994E-2</v>
       </c>
       <c r="K34" s="2" t="str">
-        <f t="shared" ref="K32:K41" si="2">C34</f>
+        <f t="shared" ref="K34:K39" si="2">C34</f>
         <v>calculated</v>
       </c>
     </row>
@@ -7229,14 +7252,14 @@
         <v>1</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="24">
+      <c r="F37" s="23">
         <v>0.41756016771510801</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="23">
+      <c r="K37" s="22">
         <f>F37</f>
         <v>0.41756016771510801</v>
       </c>
@@ -7257,10 +7280,10 @@
       <c r="E38" s="7">
         <v>0.318077268126368</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="23">
         <v>0.31256999133930702</v>
       </c>
-      <c r="K38" s="23">
+      <c r="K38" s="22">
         <f>F38</f>
         <v>0.31256999133930702</v>
       </c>
@@ -7317,10 +7340,10 @@
       <c r="D41" s="7">
         <v>0.79000002150000004</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="23">
         <v>0.49579110420655098</v>
       </c>
-      <c r="K41" s="23">
+      <c r="K41" s="22">
         <f>F41</f>
         <v>0.49579110420655098</v>
       </c>
@@ -7341,14 +7364,14 @@
       <c r="E42" s="7">
         <v>0.35128400542426502</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="23">
         <v>0.35321762744686103</v>
       </c>
-      <c r="K42" s="23">
+      <c r="K42" s="22">
         <f>F42</f>
         <v>0.35321762744686103</v>
       </c>
-      <c r="L42" s="23"/>
+      <c r="L42" s="22"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="7" t="s">
@@ -7385,7 +7408,7 @@
       <c r="E44" s="7">
         <v>2.9454385969416799</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="23">
         <v>1.45245938057048</v>
       </c>
       <c r="G44" s="7">
@@ -7423,7 +7446,7 @@
       <c r="E45" s="7">
         <v>0.69149308155026701</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F45" s="23">
         <v>1.2992295068411901</v>
       </c>
       <c r="G45" s="7">
@@ -7438,7 +7461,7 @@
       <c r="J45" s="7">
         <v>1.2782</v>
       </c>
-      <c r="K45" s="23">
+      <c r="K45" s="22">
         <v>0.7</v>
       </c>
     </row>
@@ -7455,7 +7478,7 @@
       <c r="D46" s="7">
         <v>0</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46" s="23">
         <v>0</v>
       </c>
       <c r="K46" s="17">
@@ -7517,7 +7540,7 @@
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="F45" sqref="F45"/>
+      <selection pane="topRight" activeCell="K10" sqref="K10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7534,7 +7557,7 @@
     <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
@@ -7569,7 +7592,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="7" t="s">
         <v>42</v>
       </c>
@@ -7587,7 +7610,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="7" t="s">
         <v>42</v>
       </c>
@@ -7605,7 +7628,7 @@
         <v>0.16170000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="7" t="s">
         <v>42</v>
       </c>
@@ -7623,7 +7646,7 @@
         <v>25.18</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="7" t="s">
         <v>42</v>
       </c>
@@ -7641,7 +7664,7 @@
         <v>1.4550000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
@@ -7659,7 +7682,7 @@
         <v>2.4571999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
@@ -7677,7 +7700,7 @@
         <v>-4.9639999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -7695,7 +7718,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
@@ -7728,7 +7751,7 @@
         <v>0.99521000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="3" customFormat="1">
+    <row r="10" spans="1:12" s="3" customFormat="1">
       <c r="A10" s="7" t="s">
         <v>42</v>
       </c>
@@ -7748,12 +7771,14 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="22">
-        <f>K12/3900</f>
-        <v>7.6152769230769237E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
@@ -7771,7 +7796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
@@ -7807,7 +7832,7 @@
         <v>29.699580000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="7" t="s">
         <v>54</v>
       </c>
@@ -7825,7 +7850,7 @@
         <v>calculated</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
         <v>44</v>
       </c>
@@ -7849,7 +7874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="7" t="s">
         <v>49</v>
       </c>
@@ -7867,7 +7892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="7" t="s">
         <v>49</v>
       </c>
@@ -8025,7 +8050,7 @@
       <c r="J23" s="7">
         <v>7904</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="22">
         <f>J23</f>
         <v>7904</v>
       </c>
@@ -8101,7 +8126,7 @@
       <c r="F26" s="7">
         <v>3.8497903160641202E-2</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="22">
         <f>F26</f>
         <v>3.8497903160641202E-2</v>
       </c>
@@ -8182,7 +8207,7 @@
       <c r="F29" s="7">
         <v>8.9041257982607895</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="22">
         <f>F29</f>
         <v>8.9041257982607895</v>
       </c>
@@ -8203,7 +8228,7 @@
       <c r="F30" s="7">
         <v>5.0806651342384201</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="22">
         <f>F30</f>
         <v>5.0806651342384201</v>
       </c>
@@ -8240,8 +8265,10 @@
         <v>48.634430000000002</v>
       </c>
       <c r="K31" s="16">
-        <f>AVERAGE(I31:J31)</f>
-        <v>43.244515</v>
+        <v>64</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -8264,7 +8291,7 @@
       <c r="F32" s="7">
         <v>4.7282893919530899E-3</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="22">
         <f>F32</f>
         <v>4.7282893919530899E-3</v>
       </c>
@@ -8283,7 +8310,7 @@
         <v>0.83999999999999897</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" ref="K32:K39" si="1">C33</f>
+        <f t="shared" ref="K33:K39" si="1">C33</f>
         <v>0.84</v>
       </c>
     </row>
@@ -8362,7 +8389,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="23">
+      <c r="K37" s="22">
         <f>F37</f>
         <v>0.38994431160946502</v>
       </c>
@@ -8386,7 +8413,7 @@
       <c r="F38" s="7">
         <v>0.313929226152732</v>
       </c>
-      <c r="K38" s="23">
+      <c r="K38" s="22">
         <f>F38</f>
         <v>0.313929226152732</v>
       </c>
@@ -8470,11 +8497,11 @@
       <c r="F42" s="7">
         <v>0.27139278132733902</v>
       </c>
-      <c r="K42" s="23">
+      <c r="K42" s="22">
         <f>F42</f>
         <v>0.27139278132733902</v>
       </c>
-      <c r="L42" s="23" t="s">
+      <c r="L42" s="22" t="s">
         <v>103</v>
       </c>
     </row>
@@ -8554,7 +8581,7 @@
       <c r="F45" s="7">
         <v>0.67110777222439699</v>
       </c>
-      <c r="K45" s="23">
+      <c r="K45" s="22">
         <f>F45</f>
         <v>0.67110777222439699</v>
       </c>
@@ -8628,8 +8655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8643,7 +8670,7 @@
     <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
@@ -8675,7 +8702,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
         <v>42</v>
       </c>
@@ -8693,7 +8720,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="7" t="s">
         <v>42</v>
       </c>
@@ -8711,7 +8738,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="7" t="s">
         <v>42</v>
       </c>
@@ -8729,7 +8756,7 @@
         <v>23.3874</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="7" t="s">
         <v>42</v>
       </c>
@@ -8747,7 +8774,7 @@
         <v>1.7310000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
@@ -8765,7 +8792,7 @@
         <v>2.2517999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
@@ -8783,7 +8810,7 @@
         <v>-5.4039999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -8801,7 +8828,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
@@ -8834,7 +8861,7 @@
         <v>0.99734</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1">
+    <row r="10" spans="1:11" s="3" customFormat="1">
       <c r="A10" s="7" t="s">
         <v>42</v>
       </c>
@@ -8853,12 +8880,14 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="22">
-        <f>J12/3900</f>
-        <v>1.0098825641025641E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
@@ -8876,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
@@ -8909,7 +8938,7 @@
         <v>39.385420000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="7" t="s">
         <v>54</v>
       </c>
@@ -8927,7 +8956,7 @@
         <v>calculated</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="8" t="s">
         <v>44</v>
       </c>
@@ -8950,7 +8979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="7" t="s">
         <v>49</v>
       </c>
@@ -8968,7 +8997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="7" t="s">
         <v>49</v>
       </c>
@@ -8987,7 +9016,7 @@
       <c r="F16" s="7">
         <v>20.230664535218999</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="22">
         <f>F16</f>
         <v>20.230664535218999</v>
       </c>
@@ -9127,13 +9156,11 @@
       <c r="F23" s="7">
         <v>12338.9937966083</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="22">
         <f>F23</f>
         <v>12338.9937966083</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="11" t="s">
@@ -9288,7 +9315,7 @@
       <c r="F29" s="7">
         <v>5.7797041220733103</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="22">
         <f>F29</f>
         <v>5.7797041220733103</v>
       </c>
@@ -9309,7 +9336,7 @@
       <c r="F30" s="7">
         <v>4.9405752650944903</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="22">
         <f>F30</f>
         <v>4.9405752650944903</v>
       </c>
@@ -9367,7 +9394,7 @@
       <c r="F32" s="7">
         <v>4.3073313525717203E-3</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="22">
         <f>F32</f>
         <v>4.3073313525717203E-3</v>
       </c>
@@ -9386,7 +9413,7 @@
         <v>0.83999999999999897</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" ref="J32:J39" si="1">C33</f>
+        <f t="shared" ref="J33:J39" si="1">C33</f>
         <v>0.84</v>
       </c>
     </row>
@@ -9464,7 +9491,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="23">
+      <c r="J37" s="22">
         <f>F37</f>
         <v>0.400752854697557</v>
       </c>
@@ -9488,7 +9515,7 @@
       <c r="F38" s="7">
         <v>0.30899069780498301</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="22">
         <f>F38</f>
         <v>0.30899069780498301</v>
       </c>
@@ -9573,11 +9600,11 @@
       <c r="F42" s="7">
         <v>0.355075216876657</v>
       </c>
-      <c r="J42" s="23">
+      <c r="J42" s="22">
         <f>F42</f>
         <v>0.355075216876657</v>
       </c>
-      <c r="K42" s="23"/>
+      <c r="K42" s="22"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="7" t="s">
@@ -9652,7 +9679,7 @@
       <c r="F45" s="7">
         <v>0.69017285456830202</v>
       </c>
-      <c r="J45" s="23">
+      <c r="J45" s="22">
         <f>F45</f>
         <v>0.69017285456830202</v>
       </c>
@@ -11222,15 +11249,15 @@
       </c>
       <c r="H10" s="13">
         <f>'9 - Temp Early Hardwood'!K10</f>
-        <v>1.097478717948718E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I10" s="13">
         <f>'10 -  Mid Hardwood'!K10</f>
-        <v>7.6152769230769237E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J10" s="13">
         <f>'11 - Late Hardwood'!J10</f>
-        <v>1.0098825641025641E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11594,11 +11621,11 @@
       </c>
       <c r="F23" s="14">
         <f>'8 - Late Conifer'!I23</f>
-        <v>1000</v>
+        <v>4426.9797352549103</v>
       </c>
       <c r="H23" s="14">
         <f>'9 - Temp Early Hardwood'!K23</f>
-        <v>10000</v>
+        <v>7904</v>
       </c>
       <c r="I23" s="14">
         <f>'10 -  Mid Hardwood'!K23</f>
@@ -11845,18 +11872,18 @@
       </c>
       <c r="F31" s="16">
         <f>'8 - Late Conifer'!I31</f>
-        <v>72.380390000000006</v>
+        <v>50</v>
       </c>
       <c r="G31" s="19">
         <v>63.96669</v>
       </c>
       <c r="H31" s="2">
         <f>'9 - Temp Early Hardwood'!K31</f>
-        <v>56.31326</v>
+        <v>57.3</v>
       </c>
       <c r="I31" s="16">
         <f>'10 -  Mid Hardwood'!K31</f>
-        <v>43.244515</v>
+        <v>64</v>
       </c>
       <c r="J31" s="16">
         <f>'11 - Late Hardwood'!J31</f>

--- a/PFT_Parameterizations.xlsx
+++ b/PFT_Parameterizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="0" windowWidth="29240" windowHeight="27100" tabRatio="853" activeTab="2"/>
+    <workbookView xWindow="1640" yWindow="-18000" windowWidth="25580" windowHeight="17460" tabRatio="853" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="5 - Temp C3 Grass" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="130">
   <si>
     <t>Param</t>
   </si>
@@ -215,9 +215,6 @@
     <t>Phase1a.v2</t>
   </si>
   <si>
-    <t>PHas1a.v2</t>
-  </si>
-  <si>
     <t>calc</t>
   </si>
   <si>
@@ -338,9 +335,6 @@
     <t>per jackie</t>
   </si>
   <si>
-    <t>fudged</t>
-  </si>
-  <si>
     <t>ß</t>
   </si>
   <si>
@@ -387,6 +381,42 @@
   </si>
   <si>
     <t>same as north pine</t>
+  </si>
+  <si>
+    <t>copy late hardwood</t>
+  </si>
+  <si>
+    <t>copy mid hardwood</t>
+  </si>
+  <si>
+    <t>mid hard</t>
+  </si>
+  <si>
+    <t>mid hardwood</t>
+  </si>
+  <si>
+    <t>same as early hardwood (fudged)</t>
+  </si>
+  <si>
+    <t>similar to late conifer</t>
+  </si>
+  <si>
+    <t>similar to north pine</t>
+  </si>
+  <si>
+    <t>lowered to be more competitive</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>same as North Pine</t>
+  </si>
+  <si>
+    <t>manually tweaked</t>
+  </si>
+  <si>
+    <t>manualyl tweaked</t>
   </si>
 </sst>
 </file>
@@ -530,8 +560,148 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1371">
+  <cellStyleXfs count="1511">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1930,7 +2100,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1371">
+  <cellStyles count="1511">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2616,6 +2786,76 @@
     <cellStyle name="Followed Hyperlink" xfId="1366" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1368" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1510" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3301,6 +3541,76 @@
     <cellStyle name="Hyperlink" xfId="1365" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1367" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1509" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3772,7 +4082,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1">
@@ -4339,9 +4649,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H23" sqref="H23"/>
+      <selection pane="topRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4370,13 +4680,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>61</v>
@@ -4543,10 +4853,11 @@
         <v>1.4111388929669999</v>
       </c>
       <c r="H9" s="14">
-        <v>1</v>
+        <f>E9</f>
+        <v>1.4111388929669999</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1">
@@ -4554,7 +4865,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="7">
         <f>C12/3900</f>
@@ -4630,7 +4941,7 @@
         <v>124.6847686768</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4650,7 +4961,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="2">
-        <f t="shared" ref="H14:H16" si="2">C14</f>
+        <f t="shared" ref="H14:H15" si="2">C14</f>
         <v>0</v>
       </c>
     </row>
@@ -4689,8 +5000,8 @@
         <v>43.172669985215201</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f>E16</f>
+        <v>43.172669985215201</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4798,7 +5109,7 @@
         <v>53</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="7">
         <f>1000/((0.11289+0.12947*15.625)*C12)</f>
@@ -4858,7 +5169,7 @@
         <v>9.9999997999999993E-3</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4878,8 +5189,11 @@
         <v>2.0285259001918101E-2</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="3"/>
-        <v>1.4999999999999999E-2</v>
+        <f>E25</f>
+        <v>2.0285259001918101E-2</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4968,8 +5282,8 @@
         <v>8.9086404610425198</v>
       </c>
       <c r="H29" s="22">
-        <f>E29</f>
-        <v>8.9086404610425198</v>
+        <f>D29</f>
+        <v>6.3948998451000003</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -5001,7 +5315,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="7">
         <v>11.350000381499999</v>
@@ -5020,7 +5334,7 @@
         <v>41.976819999999996</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -5041,7 +5355,11 @@
         <v>4.5659112777780304E-3</v>
       </c>
       <c r="H32" s="24">
-        <v>0.62139999999999995</v>
+        <f>E32*0.1</f>
+        <v>4.5659112777780305E-4</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -5076,7 +5394,7 @@
         <v>7.4074082099999994E-2</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -5111,7 +5429,7 @@
         <v>0.26999998089999999</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="3" customFormat="1">
@@ -5133,7 +5451,8 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="24">
-        <v>0.62139999999999995</v>
+        <f>E37</f>
+        <v>0.39427782478184098</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -5153,7 +5472,8 @@
         <v>0.32102528456778301</v>
       </c>
       <c r="H38" s="24">
-        <v>0.62139999999999995</v>
+        <f>E38</f>
+        <v>0.32102528456778301</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -5170,7 +5490,7 @@
         <v>5</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" ref="H39:H41" si="5">C39</f>
+        <f t="shared" ref="H39" si="5">C39</f>
         <v>5</v>
       </c>
     </row>
@@ -5192,7 +5512,7 @@
         <v>0.05</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -5212,8 +5532,8 @@
         <v>0.50213871905894703</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="5"/>
-        <v>0.79</v>
+        <f>E41</f>
+        <v>0.50213871905894703</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -5286,11 +5606,11 @@
         <v>3.351375</v>
       </c>
       <c r="H44" s="14">
-        <f>'8 - Late Conifer'!I44</f>
-        <v>0.92669999999999997</v>
+        <f>F44</f>
+        <v>3.3520799999999999</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -5362,10 +5682,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="J24" sqref="J24"/>
+      <selection pane="topRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5394,16 +5714,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>61</v>
@@ -5556,7 +5876,7 @@
         <v>0.76880331308720196</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1">
@@ -5564,7 +5884,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="7">
         <f>C12/3900</f>
@@ -5807,7 +6127,7 @@
         <v>53</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="7">
         <f>1000/((0.11289+0.12947*6.25)*C12)</f>
@@ -5845,7 +6165,7 @@
         <v>4426.9797352549103</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5862,11 +6182,11 @@
         <v>9.9999997999999993E-3</v>
       </c>
       <c r="I24" s="14">
-        <f>D24</f>
-        <v>9.9999997999999993E-3</v>
+        <f>C24</f>
+        <v>0.15</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5883,8 +6203,11 @@
         <v>1.9999999599999999E-2</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="0"/>
-        <v>1.4999999999999999E-2</v>
+        <f>'6 - North Pine'!H25</f>
+        <v>2.0285259001918101E-2</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5904,8 +6227,7 @@
         <v>0.101805307921965</v>
       </c>
       <c r="I26" s="22">
-        <f>E26</f>
-        <v>0.101805307921965</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5977,8 +6299,11 @@
         <v>9.0244611720554495</v>
       </c>
       <c r="I29" s="22">
-        <f>E29</f>
-        <v>9.0244611720554495</v>
+        <f>D29</f>
+        <v>6.3948998451000003</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -6010,7 +6335,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="7">
         <v>4.5399999619000004</v>
@@ -6028,7 +6353,7 @@
         <v>50</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -6049,8 +6374,11 @@
         <v>4.4835993117889996E-3</v>
       </c>
       <c r="I32" s="22">
-        <f>E32</f>
-        <v>4.4835993117889996E-3</v>
+        <f>E32*0.1</f>
+        <v>4.483599311789E-4</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6151,6 +6479,9 @@
         <f>E37</f>
         <v>0.39221339141122002</v>
       </c>
+      <c r="J37" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="7" t="s">
@@ -6209,7 +6540,7 @@
         <v>0.05</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -6250,12 +6581,10 @@
         <v>0.27136302697237402</v>
       </c>
       <c r="I42" s="22">
-        <f>E42</f>
-        <v>0.27136302697237402</v>
-      </c>
-      <c r="J42" s="22" t="s">
-        <v>103</v>
-      </c>
+        <f>C42</f>
+        <v>0.45029999999999998</v>
+      </c>
+      <c r="J42" s="22"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="7" t="s">
@@ -6308,10 +6637,11 @@
         <v>1.3983810000000001</v>
       </c>
       <c r="I44" s="16">
-        <v>0.92669999999999997</v>
+        <f>H44</f>
+        <v>1.3983810000000001</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -6332,10 +6662,10 @@
       </c>
       <c r="I45" s="14">
         <f>'9 - Temp Early Hardwood'!$K45</f>
-        <v>0.7</v>
+        <v>1.2782</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -6386,10 +6716,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="L24" sqref="L24"/>
+      <selection pane="topRight" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6419,25 +6749,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -6601,13 +6931,16 @@
         <f>J9</f>
         <v>0.63580000000000003</v>
       </c>
+      <c r="L9" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1">
       <c r="A10" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="7">
         <f>C12/3900</f>
@@ -6622,11 +6955,12 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="13">
-        <v>5.0000000000000001E-3</v>
+      <c r="K10" s="7">
+        <f>K12/3900</f>
+        <v>1.097478717948718E-2</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -6777,8 +7111,11 @@
         <v>6.1440002000000002E-3</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="1"/>
+        <f>C17</f>
         <v>6.1440000000000002E-3</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -6862,7 +7199,7 @@
         <v>53</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="7">
         <f>1000/((0.11289+0.12947*18.25)*C12)</f>
@@ -6903,7 +7240,7 @@
         <v>7904</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -6924,7 +7261,7 @@
         <v>9.9999997999999993E-3</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -6961,6 +7298,9 @@
       <c r="K25" s="16">
         <f>J25</f>
         <v>1.9134490000000001E-2</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -7078,6 +7418,9 @@
         <f>I29</f>
         <v>6.1820000000000004</v>
       </c>
+      <c r="L29" s="2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="11" t="s">
@@ -7108,7 +7451,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="7">
         <v>27.960887908899998</v>
@@ -7135,7 +7478,7 @@
         <v>57.3</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -7159,8 +7502,11 @@
         <v>4.2579909421441697E-3</v>
       </c>
       <c r="K32" s="22">
-        <f>F32</f>
-        <v>4.2579909421441697E-3</v>
+        <f>F32*0.1</f>
+        <v>4.2579909421441701E-4</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -7324,7 +7670,7 @@
         <v>0.05</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -7424,10 +7770,11 @@
         <v>1.458469</v>
       </c>
       <c r="K44" s="16">
-        <v>1.2737830000000001</v>
+        <f>I44</f>
+        <v>1.452121</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -7462,7 +7809,8 @@
         <v>1.2782</v>
       </c>
       <c r="K45" s="22">
-        <v>0.7</v>
+        <f>J45</f>
+        <v>1.2782</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -7486,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -7503,7 +7851,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="B48" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48" s="7">
         <v>1.5271999999999999</v>
@@ -7537,10 +7885,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="K10" sqref="K10:L10"/>
+      <selection pane="topRight" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7571,22 +7919,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>61</v>
@@ -7756,7 +8104,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="7">
         <f>C12/3900</f>
@@ -7771,11 +8119,12 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="13">
-        <v>5.0000000000000001E-3</v>
+      <c r="K10" s="7">
+        <f>K12/3900</f>
+        <v>7.6152769230769237E-3</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -7930,6 +8279,9 @@
         <f>C17</f>
         <v>3.8080000000000002E-3</v>
       </c>
+      <c r="L17" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="7" t="s">
@@ -8011,7 +8363,7 @@
         <v>53</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="7">
         <f>1000/((0.11289+0.12947*15.625)*C12)</f>
@@ -8074,7 +8426,7 @@
         <v>9.9999997999999993E-3</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -8127,8 +8479,11 @@
         <v>3.8497903160641202E-2</v>
       </c>
       <c r="K26" s="22">
-        <f>F26</f>
-        <v>3.8497903160641202E-2</v>
+        <f>'11 - Late Hardwood'!J26</f>
+        <v>8.6989999999999998E-2</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -8241,7 +8596,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="7">
         <v>29.3721160889</v>
@@ -8268,7 +8623,7 @@
         <v>64</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -8292,8 +8647,11 @@
         <v>4.7282893919530899E-3</v>
       </c>
       <c r="K32" s="22">
-        <f>F32</f>
-        <v>4.7282893919530899E-3</v>
+        <f>F32*0.1</f>
+        <v>4.7282893919530899E-4</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -8376,7 +8734,7 @@
         <v>12</v>
       </c>
       <c r="C37" s="7">
-        <v>3.2500000000000001E-2</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D37" s="7">
         <v>0.32499998810000003</v>
@@ -8454,7 +8812,7 @@
         <v>0.05</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -8474,8 +8832,8 @@
         <v>0.49958181050579697</v>
       </c>
       <c r="K41" s="2">
-        <f>C41</f>
-        <v>0.79</v>
+        <f>F41</f>
+        <v>0.49958181050579697</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -8501,9 +8859,7 @@
         <f>F42</f>
         <v>0.27139278132733902</v>
       </c>
-      <c r="L42" s="22" t="s">
-        <v>103</v>
-      </c>
+      <c r="L42" s="22"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="7" t="s">
@@ -8556,10 +8912,11 @@
         <v>1.873653</v>
       </c>
       <c r="K44" s="16">
-        <v>1.09632</v>
+        <f>H44</f>
+        <v>1.838954</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -8607,7 +8964,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -8624,7 +8981,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="B48" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48" s="7">
         <v>0.64875000000000005</v>
@@ -8655,8 +9012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A24" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8684,19 +9041,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>61</v>
@@ -8833,7 +9190,7 @@
         <v>42</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="7">
         <v>1.1274</v>
@@ -8866,7 +9223,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="7">
         <f>C12/3900</f>
@@ -8880,11 +9237,12 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="13">
-        <v>5.0000000000000001E-3</v>
+      <c r="J10" s="7">
+        <f>J12/3900</f>
+        <v>1.0098825641025641E-2</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -9035,8 +9393,11 @@
         <v>4.28E-3</v>
       </c>
       <c r="J17" s="2">
-        <f>C17</f>
+        <f>D17</f>
         <v>4.28E-3</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -9075,8 +9436,8 @@
         <v>0.94736587626797997</v>
       </c>
       <c r="J19" s="2">
-        <f>C19</f>
-        <v>0.95</v>
+        <f>F19</f>
+        <v>0.94736587626797997</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -9120,7 +9481,7 @@
         <v>53</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="7">
         <f>1000/((0.11289+0.12947*6.25)*C12)</f>
@@ -9180,7 +9541,7 @@
         <v>9.9999997999999993E-3</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -9212,8 +9573,11 @@
         <v>3.053057E-2</v>
       </c>
       <c r="J25" s="16">
-        <f>I25</f>
+        <f>H25</f>
         <v>3.053057E-2</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -9316,8 +9680,8 @@
         <v>5.7797041220733103</v>
       </c>
       <c r="J29" s="22">
-        <f>F29</f>
-        <v>5.7797041220733103</v>
+        <f>C29</f>
+        <v>7.2</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -9395,8 +9759,11 @@
         <v>4.3073313525717203E-3</v>
       </c>
       <c r="J32" s="22">
-        <f>F32</f>
-        <v>4.3073313525717203E-3</v>
+        <f>F32*0.1</f>
+        <v>4.3073313525717204E-4</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -9556,7 +9923,7 @@
         <v>0.05</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -9576,8 +9943,8 @@
         <v>0.50329222143419605</v>
       </c>
       <c r="J41" s="2">
-        <f>C41</f>
-        <v>0.79</v>
+        <f>F41</f>
+        <v>0.50329222143419605</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -9654,10 +10021,11 @@
         <v>1.873194</v>
       </c>
       <c r="J44" s="16">
-        <v>1.6710609999999999</v>
+        <f>I44</f>
+        <v>1.873194</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -9684,7 +10052,7 @@
         <v>0.69017285456830202</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -9708,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -9725,7 +10093,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="B48" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48" s="7">
         <v>3.0209999999999999</v>
@@ -9756,8 +10124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A14" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9775,13 +10143,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9877,7 +10245,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2">
         <f>C12/3900</f>
@@ -10017,7 +10385,7 @@
         <v>53</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2">
         <f>1000/((0.11289+0.12947*15.625)*C12)</f>
@@ -10144,7 +10512,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31">
         <v>64.016059999999996</v>
@@ -10339,7 +10707,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="B48" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D48">
         <v>1.3537999999999999</v>
@@ -10364,7 +10732,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10383,13 +10751,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10488,7 +10856,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2">
         <f>C12/3900</f>
@@ -10628,7 +10996,7 @@
         <v>53</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="9">
         <f>1000/((0.11289+0.12947*15.625)*C12)</f>
@@ -10743,7 +11111,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31">
         <v>45.855730000000001</v>
@@ -10938,7 +11306,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="B48" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D48">
         <v>1.3532</v>
@@ -10959,8 +11327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10981,28 +11349,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -11213,7 +11581,7 @@
       </c>
       <c r="E9" s="14">
         <f>'6 - North Pine'!H9</f>
-        <v>1</v>
+        <v>1.4111388929669999</v>
       </c>
       <c r="F9" s="14">
         <f>'8 - Late Conifer'!I9</f>
@@ -11237,7 +11605,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="13">
         <f>'6 - North Pine'!H10</f>
@@ -11249,15 +11617,15 @@
       </c>
       <c r="H10" s="13">
         <f>'9 - Temp Early Hardwood'!K10</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.097478717948718E-2</v>
       </c>
       <c r="I10" s="13">
         <f>'10 -  Mid Hardwood'!K10</f>
-        <v>5.0000000000000001E-3</v>
+        <v>7.6152769230769237E-3</v>
       </c>
       <c r="J10" s="13">
         <f>'11 - Late Hardwood'!J10</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.0098825641025641E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11418,7 +11786,7 @@
       </c>
       <c r="E16" s="2">
         <f>'6 - North Pine'!H16</f>
-        <v>20</v>
+        <v>43.172669985215201</v>
       </c>
       <c r="F16" s="2">
         <f>'8 - Late Conifer'!I16</f>
@@ -11518,7 +11886,7 @@
       </c>
       <c r="J19" s="2">
         <f>'11 - Late Hardwood'!J19</f>
-        <v>0.95</v>
+        <v>0.94736587626797997</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -11582,7 +11950,7 @@
         <v>53</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="19">
         <v>53.006999999999998</v>
@@ -11649,7 +12017,7 @@
       </c>
       <c r="F24" s="14">
         <f>'8 - Late Conifer'!I24</f>
-        <v>9.9999997999999993E-3</v>
+        <v>0.15</v>
       </c>
       <c r="H24" s="14">
         <f>'9 - Temp Early Hardwood'!K24</f>
@@ -11676,11 +12044,11 @@
       </c>
       <c r="E25" s="2">
         <f>'6 - North Pine'!H25</f>
-        <v>1.4999999999999999E-2</v>
+        <v>2.0285259001918101E-2</v>
       </c>
       <c r="F25" s="2">
         <f>'8 - Late Conifer'!I25</f>
-        <v>1.4999999999999999E-2</v>
+        <v>2.0285259001918101E-2</v>
       </c>
       <c r="G25" s="19">
         <v>1.4926129999999999E-2</v>
@@ -11711,7 +12079,7 @@
       </c>
       <c r="F26" s="2">
         <f>'8 - Late Conifer'!I26</f>
-        <v>0.101805307921965</v>
+        <v>0.05</v>
       </c>
       <c r="G26" s="19">
         <v>7.7520000000000006E-2</v>
@@ -11722,7 +12090,7 @@
       </c>
       <c r="I26" s="2">
         <f>'10 -  Mid Hardwood'!K26</f>
-        <v>3.8497903160641202E-2</v>
+        <v>8.6989999999999998E-2</v>
       </c>
       <c r="J26" s="16">
         <f>'11 - Late Hardwood'!J26</f>
@@ -11803,11 +12171,11 @@
       </c>
       <c r="E29" s="2">
         <f>'6 - North Pine'!H29</f>
-        <v>8.9086404610425198</v>
+        <v>6.3948998451000003</v>
       </c>
       <c r="F29" s="2">
         <f>'8 - Late Conifer'!I29</f>
-        <v>9.0244611720554495</v>
+        <v>6.3948998451000003</v>
       </c>
       <c r="G29" s="19">
         <v>5.94</v>
@@ -11822,7 +12190,7 @@
       </c>
       <c r="J29" s="2">
         <f>'11 - Late Hardwood'!J29</f>
-        <v>5.7797041220733103</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -11899,23 +12267,23 @@
       </c>
       <c r="E32" s="21">
         <f>'6 - North Pine'!H32</f>
-        <v>0.62139999999999995</v>
+        <v>4.5659112777780305E-4</v>
       </c>
       <c r="F32" s="2">
         <f>'8 - Late Conifer'!I32</f>
-        <v>4.4835993117889996E-3</v>
+        <v>4.483599311789E-4</v>
       </c>
       <c r="H32" s="2">
         <f>'9 - Temp Early Hardwood'!K32</f>
-        <v>4.2579909421441697E-3</v>
+        <v>4.2579909421441701E-4</v>
       </c>
       <c r="I32" s="2">
         <f>'10 -  Mid Hardwood'!K32</f>
-        <v>4.7282893919530899E-3</v>
+        <v>4.7282893919530899E-4</v>
       </c>
       <c r="J32" s="2">
         <f>'11 - Late Hardwood'!J32</f>
-        <v>4.3073313525717203E-3</v>
+        <v>4.3073313525717204E-4</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -12039,7 +12407,7 @@
       </c>
       <c r="E37" s="2">
         <f>'6 - North Pine'!H37</f>
-        <v>0.62139999999999995</v>
+        <v>0.39427782478184098</v>
       </c>
       <c r="F37" s="2">
         <f>'8 - Late Conifer'!I37</f>
@@ -12067,7 +12435,7 @@
       </c>
       <c r="E38" s="2">
         <f>'6 - North Pine'!H38</f>
-        <v>0.62139999999999995</v>
+        <v>0.32102528456778301</v>
       </c>
       <c r="F38" s="2">
         <f>'8 - Late Conifer'!I38</f>
@@ -12154,7 +12522,7 @@
       </c>
       <c r="E41" s="2">
         <f>'6 - North Pine'!H41</f>
-        <v>0.79</v>
+        <v>0.50213871905894703</v>
       </c>
       <c r="F41" s="2">
         <f>'8 - Late Conifer'!I41</f>
@@ -12166,11 +12534,11 @@
       </c>
       <c r="I41" s="2">
         <f>'10 -  Mid Hardwood'!K41</f>
-        <v>0.79</v>
+        <v>0.49958181050579697</v>
       </c>
       <c r="J41" s="2">
         <f>'11 - Late Hardwood'!J41</f>
-        <v>0.79</v>
+        <v>0.50329222143419605</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -12186,7 +12554,7 @@
       </c>
       <c r="F42" s="2">
         <f>'8 - Late Conifer'!I42</f>
-        <v>0.27136302697237402</v>
+        <v>0.45029999999999998</v>
       </c>
       <c r="H42" s="17">
         <f>'9 - Temp Early Hardwood'!K42</f>
@@ -12247,26 +12615,26 @@
       </c>
       <c r="E44" s="16">
         <f>'6 - North Pine'!H44</f>
-        <v>0.92669999999999997</v>
+        <v>3.3520799999999999</v>
       </c>
       <c r="F44" s="16">
         <f>'8 - Late Conifer'!I44</f>
-        <v>0.92669999999999997</v>
+        <v>1.3983810000000001</v>
       </c>
       <c r="G44" s="19">
         <v>0.49826320000000002</v>
       </c>
       <c r="H44" s="16">
         <f>'9 - Temp Early Hardwood'!K44</f>
-        <v>1.2737830000000001</v>
+        <v>1.452121</v>
       </c>
       <c r="I44" s="16">
         <f>'10 -  Mid Hardwood'!K44</f>
-        <v>1.09632</v>
+        <v>1.838954</v>
       </c>
       <c r="J44" s="16">
         <f>'11 - Late Hardwood'!J44</f>
-        <v>1.6710609999999999</v>
+        <v>1.873194</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -12285,11 +12653,11 @@
       </c>
       <c r="F45" s="14">
         <f>'8 - Late Conifer'!I45</f>
-        <v>0.7</v>
+        <v>1.2782</v>
       </c>
       <c r="H45" s="14">
         <f>'9 - Temp Early Hardwood'!K45</f>
-        <v>0.7</v>
+        <v>1.2782</v>
       </c>
       <c r="I45" s="14">
         <f>'10 -  Mid Hardwood'!K45</f>
@@ -12335,7 +12703,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="B48" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="19">
         <v>1.3532</v>
